--- a/src/Speedup-Plots.xlsx
+++ b/src/Speedup-Plots.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="14798" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="14798" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Load Factors" sheetId="2" r:id="rId1"/>
@@ -805,6 +805,7 @@
         <c:axId val="-2141559368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -17285,12 +17286,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -17314,12 +17309,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.51771100000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.59772199999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80143699999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17382,12 +17371,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -17411,12 +17394,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.40090599999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63780999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66231099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17479,12 +17456,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -17508,12 +17479,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.78467399999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99524400000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.071796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17540,6 +17505,7 @@
         <c:axId val="752258696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -17638,6 +17604,7 @@
         <c:crossAx val="752252792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="752252792"/>
@@ -17963,12 +17930,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -17979,25 +17940,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.126608</c:v>
+                  <c:v>0.154886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19811899999999999</c:v>
+                  <c:v>0.205952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.256268</c:v>
+                  <c:v>0.29544799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24648300000000001</c:v>
+                  <c:v>0.35380800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33835799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67258399999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84640199999999999</c:v>
+                  <c:v>0.35707699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18060,12 +18015,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18076,25 +18025,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.104918</c:v>
+                  <c:v>0.111485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16591</c:v>
+                  <c:v>0.173376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21235999999999999</c:v>
+                  <c:v>0.218838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23777899999999999</c:v>
+                  <c:v>0.23977999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43178299999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82470200000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62672600000000001</c:v>
+                  <c:v>0.288462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18157,12 +18100,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18186,12 +18123,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.76003900000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92026600000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4493720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18218,6 +18149,7 @@
         <c:axId val="752258696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18316,6 +18248,7 @@
         <c:crossAx val="752252792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="752252792"/>
@@ -18641,12 +18574,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18670,12 +18597,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.45675700000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61614800000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63936400000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18738,12 +18659,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18767,12 +18682,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.35685600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75915100000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0343199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18835,12 +18744,6 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18864,12 +18767,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.75334500000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99446299999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4475990000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18896,6 +18793,7 @@
         <c:axId val="752258696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -18994,6 +18892,7 @@
         <c:crossAx val="752252792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="752252792"/>
@@ -43730,7 +43629,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -44692,8 +44591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45884,8 +45783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48038,8 +47937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49021,7 +48920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
@@ -50001,10 +49900,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50101,34 +50000,6 @@
         <v>0.78467399999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>0.59772199999999998</v>
-      </c>
-      <c r="D9">
-        <v>0.63780999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.99524400000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>0.80143699999999995</v>
-      </c>
-      <c r="D10">
-        <v>0.66231099999999998</v>
-      </c>
-      <c r="E10">
-        <v>1.071796</v>
-      </c>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
@@ -50137,10 +50008,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.126608</v>
+        <v>0.154886</v>
       </c>
       <c r="D12">
-        <v>0.104918</v>
+        <v>0.111485</v>
       </c>
       <c r="E12">
         <v>0.35740499999999997</v>
@@ -50151,10 +50022,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0.19811899999999999</v>
+        <v>0.205952</v>
       </c>
       <c r="D13">
-        <v>0.16591</v>
+        <v>0.173376</v>
       </c>
       <c r="E13">
         <v>0.473356</v>
@@ -50165,10 +50036,10 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.256268</v>
+        <v>0.29544799999999999</v>
       </c>
       <c r="D14">
-        <v>0.21235999999999999</v>
+        <v>0.218838</v>
       </c>
       <c r="E14">
         <v>0.60413700000000004</v>
@@ -50179,10 +50050,10 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>0.24648300000000001</v>
+        <v>0.35380800000000001</v>
       </c>
       <c r="D15">
-        <v>0.23777899999999999</v>
+        <v>0.23977999999999999</v>
       </c>
       <c r="E15">
         <v>0.59526800000000002</v>
@@ -50193,41 +50064,13 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.33835799999999999</v>
+        <v>0.35707699999999998</v>
       </c>
       <c r="D16">
-        <v>0.43178299999999997</v>
+        <v>0.288462</v>
       </c>
       <c r="E16">
         <v>0.76003900000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>0.67258399999999996</v>
-      </c>
-      <c r="D17">
-        <v>0.82470200000000005</v>
-      </c>
-      <c r="E17">
-        <v>0.92026600000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>64</v>
-      </c>
-      <c r="C18">
-        <v>0.84640199999999999</v>
-      </c>
-      <c r="D18">
-        <v>0.62672600000000001</v>
-      </c>
-      <c r="E18">
-        <v>1.4493720000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -50301,34 +50144,6 @@
       </c>
       <c r="E24">
         <v>0.75334500000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>0.61614800000000003</v>
-      </c>
-      <c r="D25">
-        <v>0.75915100000000002</v>
-      </c>
-      <c r="E25">
-        <v>0.99446299999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B26">
-        <v>64</v>
-      </c>
-      <c r="C26">
-        <v>0.63936400000000004</v>
-      </c>
-      <c r="D26">
-        <v>1.0343199999999999</v>
-      </c>
-      <c r="E26">
-        <v>1.4475990000000001</v>
       </c>
     </row>
   </sheetData>

--- a/src/Speedup-Plots.xlsx
+++ b/src/Speedup-Plots.xlsx
@@ -47938,7 +47938,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/src/Speedup-Plots.xlsx
+++ b/src/Speedup-Plots.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="14798" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="14798"/>
   </bookViews>
   <sheets>
     <sheet name="Load Factors" sheetId="2" r:id="rId1"/>
@@ -10571,25 +10571,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.5747080000000002</c:v>
+                  <c:v>6.8445689999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6770250000000004</c:v>
+                  <c:v>7.1817640000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7376229999999993</c:v>
+                  <c:v>9.4737989999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.991215</c:v>
+                  <c:v>10.844942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.012267000000001</c:v>
+                  <c:v>13.073145999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.951835000000003</c:v>
+                  <c:v>30.798338999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.892541000000001</c:v>
+                  <c:v>33.203051000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11244,25 +11244,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.6726559999999999</c:v>
+                  <c:v>6.9512700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7908350000000004</c:v>
+                  <c:v>7.2898969999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8273550000000007</c:v>
+                  <c:v>9.5670850000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.069737</c:v>
+                  <c:v>10.919416999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.651</c:v>
+                  <c:v>13.165552999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.750562</c:v>
+                  <c:v>13.413658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.115321999999999</c:v>
+                  <c:v>13.031643000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11917,25 +11917,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.2734249999999996</c:v>
+                  <c:v>6.7070080000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3505240000000001</c:v>
+                  <c:v>6.9089669999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4749599999999994</c:v>
+                  <c:v>9.2631390000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10.633549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.184692999999999</c:v>
+                  <c:v>12.862494999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.916505000000001</c:v>
+                  <c:v>12.59122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.065588999999999</c:v>
+                  <c:v>13.010896000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12590,25 +12590,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.297909000000001</c:v>
+                  <c:v>12.227169999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.980699</c:v>
+                  <c:v>12.974475999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.529496999999999</c:v>
+                  <c:v>14.443693</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.662319</c:v>
+                  <c:v>17.531727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.617587</c:v>
+                  <c:v>24.046802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.183224000000003</c:v>
+                  <c:v>54.657333999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.669558000000002</c:v>
+                  <c:v>103.948785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13263,25 +13263,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.407522999999999</c:v>
+                  <c:v>12.342542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.105193</c:v>
+                  <c:v>13.100498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.609572</c:v>
+                  <c:v>14.539391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.669993999999999</c:v>
+                  <c:v>17.572141999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.650991000000001</c:v>
+                  <c:v>24.092580000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.501325000000001</c:v>
+                  <c:v>28.385936000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.502556999999999</c:v>
+                  <c:v>27.581323999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13936,25 +13936,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11.911492000000001</c:v>
+                  <c:v>11.880001999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.382605999999999</c:v>
+                  <c:v>12.36511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.029826</c:v>
+                  <c:v>13.824389999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.177019000000001</c:v>
+                  <c:v>17.045791999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.320219000000002</c:v>
+                  <c:v>23.771108000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.667010999999999</c:v>
+                  <c:v>27.218907999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.718566000000003</c:v>
+                  <c:v>27.692225000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43628,7 +43628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
@@ -47937,7 +47937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -48920,8 +48920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48965,7 +48965,7 @@
         <v>0.98425300000000004</v>
       </c>
       <c r="E4">
-        <v>6.5747080000000002</v>
+        <v>6.8445689999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -48982,7 +48982,7 @@
         <v>1.048219</v>
       </c>
       <c r="E5">
-        <v>7.6770250000000004</v>
+        <v>7.1817640000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -48996,7 +48996,7 @@
         <v>1.2881119999999999</v>
       </c>
       <c r="E6">
-        <v>9.7376229999999993</v>
+        <v>9.4737989999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -49010,7 +49010,7 @@
         <v>1.551161</v>
       </c>
       <c r="E7">
-        <v>10.991215</v>
+        <v>10.844942</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -49024,7 +49024,7 @@
         <v>3.7078359999999999</v>
       </c>
       <c r="E8">
-        <v>16.012267000000001</v>
+        <v>13.073145999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -49038,7 +49038,7 @@
         <v>11.20295</v>
       </c>
       <c r="E9">
-        <v>35.951835000000003</v>
+        <v>30.798338999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -49052,7 +49052,7 @@
         <v>5.2776709999999998</v>
       </c>
       <c r="E10">
-        <v>30.892541000000001</v>
+        <v>33.203051000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -49069,7 +49069,7 @@
         <v>0.95823499999999995</v>
       </c>
       <c r="E12">
-        <v>6.6726559999999999</v>
+        <v>6.9512700000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -49086,7 +49086,7 @@
         <v>1.0152870000000001</v>
       </c>
       <c r="E13">
-        <v>7.7908350000000004</v>
+        <v>7.2898969999999998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -49100,7 +49100,7 @@
         <v>1.2431779999999999</v>
       </c>
       <c r="E14">
-        <v>9.8273550000000007</v>
+        <v>9.5670850000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -49114,7 +49114,7 @@
         <v>1.4920960000000001</v>
       </c>
       <c r="E15">
-        <v>11.069737</v>
+        <v>10.919416999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -49128,7 +49128,7 @@
         <v>1.8969780000000001</v>
       </c>
       <c r="E16">
-        <v>13.651</v>
+        <v>13.165552999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -49142,7 +49142,7 @@
         <v>1.82413</v>
       </c>
       <c r="E17">
-        <v>13.750562</v>
+        <v>13.413658</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -49156,7 +49156,7 @@
         <v>1.566692</v>
       </c>
       <c r="E18">
-        <v>17.115321999999999</v>
+        <v>13.031643000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -49173,7 +49173,7 @@
         <v>0.929983</v>
       </c>
       <c r="E20">
-        <v>6.2734249999999996</v>
+        <v>6.7070080000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -49190,7 +49190,7 @@
         <v>0.96991000000000005</v>
       </c>
       <c r="E21">
-        <v>7.3505240000000001</v>
+        <v>6.9089669999999996</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -49204,7 +49204,7 @@
         <v>1.1887589999999999</v>
       </c>
       <c r="E22">
-        <v>9.4749599999999994</v>
+        <v>9.2631390000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -49232,7 +49232,7 @@
         <v>1.7777240000000001</v>
       </c>
       <c r="E24">
-        <v>13.184692999999999</v>
+        <v>12.862494999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -49246,7 +49246,7 @@
         <v>1.7186410000000001</v>
       </c>
       <c r="E25">
-        <v>13.916505000000001</v>
+        <v>12.59122</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -49260,7 +49260,7 @@
         <v>1.4869250000000001</v>
       </c>
       <c r="E26">
-        <v>17.065588999999999</v>
+        <v>13.010896000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -49277,7 +49277,7 @@
         <v>1.6351329999999999</v>
       </c>
       <c r="E28">
-        <v>12.297909000000001</v>
+        <v>12.227169999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -49294,7 +49294,7 @@
         <v>1.843904</v>
       </c>
       <c r="E29">
-        <v>12.980699</v>
+        <v>12.974475999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -49308,7 +49308,7 @@
         <v>2.1347610000000001</v>
       </c>
       <c r="E30">
-        <v>14.529496999999999</v>
+        <v>14.443693</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -49322,7 +49322,7 @@
         <v>2.41092</v>
       </c>
       <c r="E31">
-        <v>17.662319</v>
+        <v>17.531727</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -49336,7 +49336,7 @@
         <v>6.0524329999999997</v>
       </c>
       <c r="E32">
-        <v>23.617587</v>
+        <v>24.046802</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -49350,7 +49350,7 @@
         <v>14.566276</v>
       </c>
       <c r="E33">
-        <v>54.183224000000003</v>
+        <v>54.657333999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -49364,7 +49364,7 @@
         <v>7.7768689999999996</v>
       </c>
       <c r="E34">
-        <v>44.669558000000002</v>
+        <v>103.948785</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -49381,7 +49381,7 @@
         <v>1.609378</v>
       </c>
       <c r="E36">
-        <v>12.407522999999999</v>
+        <v>12.342542</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -49398,7 +49398,7 @@
         <v>1.805005</v>
       </c>
       <c r="E37">
-        <v>13.105193</v>
+        <v>13.100498</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -49412,7 +49412,7 @@
         <v>2.082122</v>
       </c>
       <c r="E38">
-        <v>14.609572</v>
+        <v>14.539391</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -49426,7 +49426,7 @@
         <v>2.3426800000000001</v>
       </c>
       <c r="E39">
-        <v>17.669993999999999</v>
+        <v>17.572141999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -49440,7 +49440,7 @@
         <v>2.9298389999999999</v>
       </c>
       <c r="E40">
-        <v>23.650991000000001</v>
+        <v>24.092580000000002</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -49454,7 +49454,7 @@
         <v>2.5959029999999998</v>
       </c>
       <c r="E41">
-        <v>25.501325000000001</v>
+        <v>28.385936000000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -49468,7 +49468,7 @@
         <v>2.5818240000000001</v>
       </c>
       <c r="E42">
-        <v>31.502556999999999</v>
+        <v>27.581323999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -49485,7 +49485,7 @@
         <v>1.577072</v>
       </c>
       <c r="E44">
-        <v>11.911492000000001</v>
+        <v>11.880001999999999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -49502,7 +49502,7 @@
         <v>1.751285</v>
       </c>
       <c r="E45">
-        <v>12.382605999999999</v>
+        <v>12.36511</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -49516,7 +49516,7 @@
         <v>2.0197270000000001</v>
       </c>
       <c r="E46">
-        <v>14.029826</v>
+        <v>13.824389999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -49530,7 +49530,7 @@
         <v>2.2765209999999998</v>
       </c>
       <c r="E47">
-        <v>17.177019000000001</v>
+        <v>17.045791999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -49544,7 +49544,7 @@
         <v>2.8535780000000002</v>
       </c>
       <c r="E48">
-        <v>23.320219000000002</v>
+        <v>23.771108000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -49558,7 +49558,7 @@
         <v>2.494548</v>
       </c>
       <c r="E49">
-        <v>24.667010999999999</v>
+        <v>27.218907999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -49572,7 +49572,7 @@
         <v>2.477795</v>
       </c>
       <c r="E50">
-        <v>33.718566000000003</v>
+        <v>27.692225000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">

--- a/src/Speedup-Plots.xlsx
+++ b/src/Speedup-Plots.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSTHAY~1\AppData\Local\Temp\Mxt91\RemoteFiles\11872688_9_21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSTHAY~1\AppData\Local\Temp\Mxt91\RemoteFiles\11872688_11_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="14798"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25598" windowHeight="14798" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Load Factors" sheetId="2" r:id="rId1"/>
@@ -8545,25 +8545,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.26321600000000001</c:v>
+                  <c:v>0.23041900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54531700000000005</c:v>
+                  <c:v>0.45036900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.915964</c:v>
+                  <c:v>0.587677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6699900000000001</c:v>
+                  <c:v>1.1161019999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1468910000000001</c:v>
+                  <c:v>1.9338070000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6015649999999999</c:v>
+                  <c:v>2.096711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.764977</c:v>
+                  <c:v>2.1137380000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43372,7 +43372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -43424,7 +43424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -43628,7 +43628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
@@ -44591,8 +44591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -44643,7 +44643,7 @@
         <v>0.39400000000000002</v>
       </c>
       <c r="G3">
-        <v>0.26321600000000001</v>
+        <v>0.23041900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -44663,7 +44663,7 @@
         <v>0.58701999999999999</v>
       </c>
       <c r="G4">
-        <v>0.54531700000000005</v>
+        <v>0.45036900000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -44683,7 +44683,7 @@
         <v>1.394849</v>
       </c>
       <c r="G5">
-        <v>0.915964</v>
+        <v>0.587677</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -44703,7 +44703,7 @@
         <v>1.9542079999999999</v>
       </c>
       <c r="G6">
-        <v>1.6699900000000001</v>
+        <v>1.1161019999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -44723,7 +44723,7 @@
         <v>2.5216780000000001</v>
       </c>
       <c r="G7">
-        <v>2.1468910000000001</v>
+        <v>1.9338070000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -44743,7 +44743,7 @@
         <v>2.9031419999999999</v>
       </c>
       <c r="G8">
-        <v>2.6015649999999999</v>
+        <v>2.096711</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -44763,7 +44763,7 @@
         <v>3.0759219999999998</v>
       </c>
       <c r="G9">
-        <v>2.764977</v>
+        <v>2.1137380000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
